--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LFAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LFAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -31,16 +31,16 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>0.071</t>
-  </si>
-  <si>
-    <t>-0.03***</t>
-  </si>
-  <si>
-    <t>7.684***</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>-0.034***</t>
+  </si>
+  <si>
+    <t>6.776***</t>
+  </si>
+  <si>
+    <t>-0.322***</t>
   </si>
 </sst>
 </file>
